--- a/regions_data/Surowce/pie_chart_data/Zużycie gazu ziemnego.xlsx
+++ b/regions_data/Surowce/pie_chart_data/Zużycie gazu ziemnego.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -190,17 +193,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -224,21 +231,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="B1:R9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="33.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -286,103 +292,103 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>8049</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>13910</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>758</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>1750</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>11727</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>302</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>4386</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>1707</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="E3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>2641</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>3804</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="L3" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="2" t="n">
         <v>804</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
@@ -392,322 +398,325 @@
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>275</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>1333</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="P4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>428</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>1382</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>507</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>594</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="P5" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="Q5" s="2" t="n">
         <v>1047</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>10109</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>24252</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>42146</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>4861</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>9851</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>21076</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>52124</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>17446</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>10221</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <v>1892</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>20853</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>17756</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>7697</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="P6" s="2" t="n">
         <v>2243</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>9865</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>23287</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>1198</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>15242</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>436</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>318</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>4</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="P7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>11585</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>4414</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="E8" s="2" t="n">
         <v>5441</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>3877</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>4990</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>14120</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>27166</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>2241</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="2" t="n">
         <v>7994</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="2" t="n">
         <v>1536</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>7154</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>15127</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>2692</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="P8" s="2" t="n">
         <v>3017</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>13551</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>7297</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>6299</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>4304</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>3666</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>2072</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>2320</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>7137</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>10548</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>1033</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>4443</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="L9" s="2" t="n">
         <v>708</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>3005</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>7548</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>1774</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="P9" s="2" t="n">
         <v>1996</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="Q9" s="2" t="n">
         <v>7209</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>3758</v>
       </c>
     </row>
